--- a/AAII_Financials/Yearly/APA_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/APA_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
   <si>
     <t>APA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,145 +665,157 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42735</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42369</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42004</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41639</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41274</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>40908</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>6315000</v>
+      </c>
+      <c r="E8" s="3">
         <v>7348000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>5887000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>5367000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>6510000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>12691000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>14771000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>16428000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>16888000</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1447000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1439000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1400000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1494000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>3708000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2238000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>5706000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>5752000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2605000</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>4868000</v>
+      </c>
+      <c r="E10" s="3">
         <v>5909000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>4487000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>3873000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>2802000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>10453000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>9065000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>10676000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>14283000</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -816,25 +828,26 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>805000</v>
+      </c>
+      <c r="E12" s="3">
         <v>503000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>549000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>473000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>2771000</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>8</v>
@@ -845,9 +858,12 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -875,69 +891,78 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>3031000</v>
+      </c>
+      <c r="E14" s="3">
         <v>610000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-602000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>1122000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>34879000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>6987000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>1012000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>1957000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>129000</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>2680000</v>
+      </c>
+      <c r="E15" s="3">
         <v>2405000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>2280000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>2618000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>3300000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>4719000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>4871000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>4955000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>4095000</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -947,68 +972,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>8989000</v>
+      </c>
+      <c r="E17" s="3">
         <v>6059000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4482000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>7015000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>18777000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>15610000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>10530000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>11724000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>8795000</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-2674000</v>
+      </c>
+      <c r="E18" s="3">
         <v>1289000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1405000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1648000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-12267000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-2919000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>4241000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>4704000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>8093000</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1021,79 +1053,86 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>66000</v>
+      </c>
+      <c r="E20" s="3">
         <v>75000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-72000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-34000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>98000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>110000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-333000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>136000</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>72000</v>
+      </c>
+      <c r="E21" s="3">
         <v>3769000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>3613000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>936000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-8869000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>6911000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>9774000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>11949000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>12297000</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>400000</v>
+      </c>
+      <c r="E22" s="3">
         <v>406000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>415000</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>8</v>
@@ -1107,72 +1146,81 @@
       <c r="J22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-3008000</v>
+      </c>
+      <c r="E23" s="3">
         <v>958000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>918000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1682000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-12169000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2809000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>3908000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>4840000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>8093000</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>674000</v>
+      </c>
+      <c r="E24" s="3">
         <v>408000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-698000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-442000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-1010000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>663000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1928000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>2853000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>3509000</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1200,69 +1248,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-3682000</v>
+      </c>
+      <c r="E26" s="3">
         <v>550000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1616000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1240000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-11159000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-3472000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1980000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1987000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>4584000</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-3553000</v>
+      </c>
+      <c r="E27" s="3">
         <v>304000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1417000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1372000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-10844000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-3815000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1880000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1911000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>4508000</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1290,39 +1347,45 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="3">
         <v>-264000</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>-113000</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>-33000</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>492000</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>-1588000</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>308000</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>14000</v>
       </c>
-      <c r="K29" s="3" t="s">
+      <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1350,9 +1413,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1380,69 +1446,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-66000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-75000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>72000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>34000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-98000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-110000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>333000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-136000</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-3553000</v>
+      </c>
+      <c r="E33" s="3">
         <v>40000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1304000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1405000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-10352000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-5403000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>2188000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1925000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>4508000</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1470,74 +1545,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-3553000</v>
+      </c>
+      <c r="E35" s="3">
         <v>40000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1304000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1405000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-10352000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-5403000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>2188000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1925000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>4508000</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42735</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42369</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42004</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41639</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41274</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>40908</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1550,8 +1634,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1564,38 +1649,42 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>247000</v>
+      </c>
+      <c r="E41" s="3">
         <v>714000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1668000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1377000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1467000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>769000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1906000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>160000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>295000</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1623,137 +1712,152 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1062000</v>
+      </c>
+      <c r="E43" s="3">
         <v>2388000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1345000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1128000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2506000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2024000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2952000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>3086000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3079000</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>502000</v>
+      </c>
+      <c r="E44" s="3">
         <v>401000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>368000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>476000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>570000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>708000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>891000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>908000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>655000</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>150000</v>
+      </c>
+      <c r="E45" s="3">
         <v>378000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>344000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>260000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>462000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2914000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>617000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>808000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>774000</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1961000</v>
+      </c>
+      <c r="E46" s="3">
         <v>2687000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3725000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3241000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3752000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>6415000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>6366000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>4962000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4803000</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1258000</v>
+      </c>
+      <c r="E47" s="3">
         <v>121000</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>8</v>
@@ -1770,42 +1874,48 @@
       <c r="J47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
-      </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>14158000</v>
+      </c>
+      <c r="E48" s="3">
         <v>18421000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>17759000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>18867000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>20838000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>48076000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>52421000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>53280000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>45448000</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1821,21 +1931,24 @@
       <c r="G49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H49" s="3">
+      <c r="H49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I49" s="3">
         <v>87000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1369000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1289000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1114000</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1863,9 +1976,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1893,39 +2009,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>730000</v>
+      </c>
+      <c r="E52" s="3">
         <v>827000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>438000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>411000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>910000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1374000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1481000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1206000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1344000</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1953,39 +2075,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>18107000</v>
+      </c>
+      <c r="E54" s="3">
         <v>21582000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>21922000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>22519000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>25500000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>55952000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>61637000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>60737000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>52051000</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1998,8 +2126,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2012,188 +2141,207 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>695000</v>
+      </c>
+      <c r="E57" s="3">
         <v>709000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>641000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>585000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>618000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1210000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1616000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1092000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1048000</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E58" s="3">
         <v>301000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>550000</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
       <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
         <v>1000</v>
       </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
       <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
         <v>53000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>990000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>431000</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1149000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1502000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1373000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1258000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1222000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2454000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3031000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3454000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3760000</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1855000</v>
+      </c>
+      <c r="E60" s="3">
         <v>2201000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2564000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1843000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1841000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3664000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>4700000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>5536000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4963000</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>8555000</v>
+      </c>
+      <c r="E61" s="3">
         <v>8093000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>7934000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>8544000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>8716000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>11245000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>9672000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>11355000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>6785000</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2677000</v>
+      </c>
+      <c r="E62" s="3">
         <v>2476000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2633000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>4453000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>5453000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>12906000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>11872000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>12515000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>11942000</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2221,9 +2369,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2251,9 +2402,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2281,39 +2435,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>14852000</v>
+      </c>
+      <c r="E66" s="3">
         <v>14452000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>14506000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>16281000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>17612000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>30015000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>28241000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>29406000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>23058000</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2326,8 +2486,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2355,9 +2516,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2385,9 +2549,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2415,9 +2582,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2445,39 +2615,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-5601000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-2048000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-2088000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-3385000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-1980000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>16249000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>22032000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>20161000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>18500000</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2505,9 +2681,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2535,9 +2714,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2565,39 +2747,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3255000</v>
+      </c>
+      <c r="E76" s="3">
         <v>7130000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>7416000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>6238000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>7888000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>25937000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>33396000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>31331000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>28993000</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2625,74 +2813,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42735</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42369</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42004</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41639</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41274</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>40908</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-3553000</v>
+      </c>
+      <c r="E81" s="3">
         <v>40000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1304000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1405000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-10352000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-5403000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>2188000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1925000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>4508000</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2705,38 +2902,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2680000</v>
+      </c>
+      <c r="E83" s="3">
         <v>2405000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>2280000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>2618000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>3300000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>9720000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>5866000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>7109000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>4204000</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2764,9 +2965,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2794,9 +2998,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2824,9 +3031,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2854,9 +3064,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2884,39 +3097,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>2867000</v>
+      </c>
+      <c r="E89" s="3">
         <v>3777000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>2428000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>2430000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>2667000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>8461000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>9835000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>8504000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>9953000</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2929,38 +3148,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2921000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-3771000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2582000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1768000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-4441000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-9903000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-9127000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-9531000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-7078000</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2988,9 +3211,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3018,39 +3244,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3446000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-3944000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1416000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1660000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>1083000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-8804000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-7116000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-13424000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-8645000</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3063,38 +3295,42 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-376000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-382000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-380000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-379000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-377000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-365000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-360000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-332000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-306000</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3122,9 +3358,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3152,9 +3391,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3182,39 +3424,45 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>112000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-787000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-721000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-860000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-2962000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-794000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-973000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>4785000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1147000</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3242,37 +3490,43 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-467000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-954000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>291000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-90000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>788000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1137000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1746000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-135000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>161000</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/APA_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/APA_YR_FIN.xlsx
@@ -835,10 +835,10 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>805000</v>
+        <v>186000</v>
       </c>
       <c r="E12" s="3">
-        <v>503000</v>
+        <v>289000</v>
       </c>
       <c r="F12" s="3">
         <v>549000</v>
@@ -901,10 +901,10 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>3031000</v>
+        <v>3650000</v>
       </c>
       <c r="E14" s="3">
-        <v>610000</v>
+        <v>824000</v>
       </c>
       <c r="F14" s="3">
         <v>-602000</v>
@@ -3155,13 +3155,13 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2921000</v>
+        <v>-2961000</v>
       </c>
       <c r="E91" s="3">
-        <v>-3771000</v>
+        <v>-3904000</v>
       </c>
       <c r="F91" s="3">
-        <v>-2582000</v>
+        <v>-2760000</v>
       </c>
       <c r="G91" s="3">
         <v>-1768000</v>

--- a/AAII_Financials/Yearly/APA_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/APA_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
   <si>
     <t>APA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,157 +665,170 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42369</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42004</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41639</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41274</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40908</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>4435000</v>
+      </c>
+      <c r="E8" s="3">
         <v>6315000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>7348000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>5887000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>5367000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>6510000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>12691000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>14771000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>16428000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>16888000</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1484000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1447000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1439000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1400000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1494000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>3708000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2238000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>5706000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>5752000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2605000</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>2951000</v>
+      </c>
+      <c r="E10" s="3">
         <v>4868000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>5909000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>4487000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>3873000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>2802000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>10453000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>9065000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>10676000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>14283000</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -829,28 +842,29 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>173000</v>
+      </c>
+      <c r="E12" s="3">
         <v>186000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>289000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>549000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>473000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>2771000</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>8</v>
@@ -861,9 +875,12 @@
       <c r="L12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -894,75 +911,84 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>4464000</v>
+      </c>
+      <c r="E14" s="3">
         <v>3650000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>824000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-602000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>1122000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>34879000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>6987000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>1012000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>1957000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>129000</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>1772000</v>
+      </c>
+      <c r="E15" s="3">
         <v>2680000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>2405000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>2280000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>2618000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>3300000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>4719000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>4871000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>4955000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>4095000</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -973,74 +999,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>8689000</v>
+      </c>
+      <c r="E17" s="3">
         <v>8989000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>6059000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4482000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>7015000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>18777000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>15610000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>10530000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>11724000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>8795000</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-4254000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-2674000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1289000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1405000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1648000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-12267000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-2919000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>4241000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>4704000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>8093000</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1054,88 +1087,95 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-152000</v>
+      </c>
+      <c r="E20" s="3">
         <v>66000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>75000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-72000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-34000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>98000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>110000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-333000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>136000</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-2634000</v>
+      </c>
+      <c r="E21" s="3">
         <v>72000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>3769000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>3613000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>936000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-8869000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>6911000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>9774000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>11949000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>12297000</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>434000</v>
+      </c>
+      <c r="E22" s="3">
         <v>400000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>406000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>415000</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>8</v>
@@ -1149,78 +1189,87 @@
       <c r="K22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-4840000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-3008000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>958000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>918000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1682000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-12169000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2809000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>3908000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>4840000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>8093000</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>64000</v>
+      </c>
+      <c r="E24" s="3">
         <v>674000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>408000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-698000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-442000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-1010000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>663000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1928000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2853000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>3509000</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1251,75 +1300,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-4904000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-3682000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>550000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1616000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1240000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-11159000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-3472000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1980000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1987000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>4584000</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-4860000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-3553000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>304000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1417000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1372000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-10844000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-3815000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1880000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1911000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>4508000</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1350,42 +1408,48 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="3">
         <v>-264000</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>-113000</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>-33000</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>492000</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-1588000</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>308000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>14000</v>
       </c>
-      <c r="L29" s="3" t="s">
+      <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1416,9 +1480,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1449,75 +1516,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>152000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-66000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-75000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>72000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>34000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-98000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-110000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>333000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-136000</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-4860000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-3553000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>40000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1304000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1405000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-10352000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-5403000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>2188000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1925000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>4508000</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1548,80 +1624,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-4860000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-3553000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>40000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1304000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1405000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-10352000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-5403000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>2188000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1925000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>4508000</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42369</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42004</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41639</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41274</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40908</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1635,8 +1720,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1650,41 +1736,45 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>262000</v>
+      </c>
+      <c r="E41" s="3">
         <v>247000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>714000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1668000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1377000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1467000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>769000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1906000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>160000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>295000</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1715,152 +1805,167 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>908000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1062000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2388000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1345000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1128000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2506000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2024000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2952000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3086000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3079000</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>492000</v>
+      </c>
+      <c r="E44" s="3">
         <v>502000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>401000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>368000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>476000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>570000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>708000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>891000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>908000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>655000</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>184000</v>
+      </c>
+      <c r="E45" s="3">
         <v>150000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>378000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>344000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>260000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>462000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2914000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>617000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>808000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>774000</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1846000</v>
+      </c>
+      <c r="E46" s="3">
         <v>1961000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2687000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3725000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3241000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3752000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>6415000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>6366000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4962000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4803000</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1555000</v>
+      </c>
+      <c r="E47" s="3">
         <v>1258000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>121000</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>8</v>
@@ -1877,45 +1982,51 @@
       <c r="K47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L47" s="3">
-        <v>0</v>
-      </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>8819000</v>
+      </c>
+      <c r="E48" s="3">
         <v>14158000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>18421000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>17759000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>18867000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>20838000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>48076000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>52421000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>53280000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>45448000</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1934,21 +2045,24 @@
       <c r="H49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I49" s="3">
+      <c r="I49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J49" s="3">
         <v>87000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1369000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1289000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1114000</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1979,9 +2093,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2012,42 +2129,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>526000</v>
+      </c>
+      <c r="E52" s="3">
         <v>730000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>827000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>438000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>411000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>910000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1374000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1481000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1206000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1344000</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2078,42 +2201,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>12746000</v>
+      </c>
+      <c r="E54" s="3">
         <v>18107000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>21582000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>21922000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>22519000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>25500000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>55952000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>61637000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>60737000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>52051000</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2127,8 +2256,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2142,206 +2272,225 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>444000</v>
+      </c>
+      <c r="E57" s="3">
         <v>695000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>709000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>641000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>585000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>618000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1210000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1616000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1092000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1048000</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E58" s="3">
         <v>11000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>301000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>550000</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
       <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
         <v>1000</v>
       </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
       <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
         <v>53000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>990000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>431000</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>862000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1149000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1502000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1373000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1258000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1222000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2454000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3031000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3454000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3760000</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1308000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1855000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2201000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2564000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1843000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1841000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3664000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>4700000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5536000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4963000</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>8770000</v>
+      </c>
+      <c r="E61" s="3">
         <v>8555000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>8093000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>7934000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>8544000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>8716000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>11245000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>9672000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>11355000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>6785000</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2705000</v>
+      </c>
+      <c r="E62" s="3">
         <v>2677000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2476000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2633000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>4453000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>5453000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>12906000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>11872000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>12515000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>11942000</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2372,9 +2521,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2405,9 +2557,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2438,42 +2593,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>14385000</v>
+      </c>
+      <c r="E66" s="3">
         <v>14852000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>14452000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>14506000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>16281000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>17612000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>30015000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>28241000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>29406000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>23058000</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2487,8 +2648,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2519,9 +2681,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2552,9 +2717,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2585,9 +2753,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2618,42 +2789,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-10461000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-5601000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-2048000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-2088000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-3385000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-1980000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>16249000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>22032000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>20161000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>18500000</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2684,9 +2861,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2717,9 +2897,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2750,42 +2933,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1639000</v>
+      </c>
+      <c r="E76" s="3">
         <v>3255000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>7130000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>7416000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>6238000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>7888000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>25937000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>33396000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>31331000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>28993000</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2816,80 +3005,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42369</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42004</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41639</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41274</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40908</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-4860000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-3553000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>40000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1304000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1405000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-10352000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-5403000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>2188000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1925000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>4508000</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2903,41 +3101,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1772000</v>
+      </c>
+      <c r="E83" s="3">
         <v>2680000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>2405000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>2280000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>2618000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>3300000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>9720000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>5866000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>7109000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>4204000</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2968,9 +3170,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3001,9 +3206,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3034,9 +3242,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3067,9 +3278,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3100,42 +3314,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1388000</v>
+      </c>
+      <c r="E89" s="3">
         <v>2867000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>3777000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>2428000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>2430000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>2667000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>8461000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>9835000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>8504000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>9953000</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3149,41 +3369,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1302000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2961000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-3904000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2760000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1768000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-4441000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-9903000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-9127000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-9531000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-7078000</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3214,9 +3438,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3247,42 +3474,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1466000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-3446000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-3944000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1416000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1660000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>1083000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-8804000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-7116000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-13424000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-8645000</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3296,41 +3529,45 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-146000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-376000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-382000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-380000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-379000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-377000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-365000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-360000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-332000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-306000</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3361,9 +3598,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3394,9 +3634,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3427,42 +3670,48 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>93000</v>
+      </c>
+      <c r="E100" s="3">
         <v>112000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-787000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-721000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-860000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-2962000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-794000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-973000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>4785000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1147000</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3493,40 +3742,46 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-467000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-954000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>291000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-90000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>788000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1137000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1746000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-135000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>161000</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/APA_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/APA_YR_FIN.xlsx
@@ -728,10 +728,10 @@
         <v>4435000</v>
       </c>
       <c r="E8" s="3">
-        <v>6315000</v>
+        <v>6491000</v>
       </c>
       <c r="F8" s="3">
-        <v>7348000</v>
+        <v>7705000</v>
       </c>
       <c r="G8" s="3">
         <v>5887000</v>
@@ -764,10 +764,10 @@
         <v>1484000</v>
       </c>
       <c r="E9" s="3">
-        <v>1447000</v>
+        <v>1589000</v>
       </c>
       <c r="F9" s="3">
-        <v>1439000</v>
+        <v>1779000</v>
       </c>
       <c r="G9" s="3">
         <v>1400000</v>
@@ -800,10 +800,10 @@
         <v>2951000</v>
       </c>
       <c r="E10" s="3">
-        <v>4868000</v>
+        <v>4902000</v>
       </c>
       <c r="F10" s="3">
-        <v>5909000</v>
+        <v>5926000</v>
       </c>
       <c r="G10" s="3">
         <v>4487000</v>
@@ -1009,10 +1009,10 @@
         <v>8689000</v>
       </c>
       <c r="E17" s="3">
-        <v>8989000</v>
+        <v>9131000</v>
       </c>
       <c r="F17" s="3">
-        <v>6059000</v>
+        <v>6399000</v>
       </c>
       <c r="G17" s="3">
         <v>4482000</v>
@@ -1045,10 +1045,10 @@
         <v>-4254000</v>
       </c>
       <c r="E18" s="3">
-        <v>-2674000</v>
+        <v>-2640000</v>
       </c>
       <c r="F18" s="3">
-        <v>1289000</v>
+        <v>1306000</v>
       </c>
       <c r="G18" s="3">
         <v>1405000</v>
@@ -1097,10 +1097,10 @@
         <v>-152000</v>
       </c>
       <c r="E20" s="3">
-        <v>66000</v>
+        <v>32000</v>
       </c>
       <c r="F20" s="3">
-        <v>75000</v>
+        <v>58000</v>
       </c>
       <c r="G20" s="3">
         <v>-72000</v>
@@ -1529,10 +1529,10 @@
         <v>152000</v>
       </c>
       <c r="E32" s="3">
-        <v>-66000</v>
+        <v>-32000</v>
       </c>
       <c r="F32" s="3">
-        <v>-75000</v>
+        <v>-58000</v>
       </c>
       <c r="G32" s="3">
         <v>72000</v>
@@ -3536,7 +3536,7 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-146000</v>
+        <v>-123000</v>
       </c>
       <c r="E96" s="3">
         <v>-376000</v>

--- a/AAII_Financials/Yearly/APA_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/APA_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
   <si>
     <t>APA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,170 +665,183 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42369</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42004</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41639</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41274</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40908</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>7985000</v>
+      </c>
+      <c r="E8" s="3">
         <v>4435000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>6491000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>7705000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>5887000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>5367000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>6510000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>12691000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>14771000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>16428000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>16888000</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2821000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1484000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1589000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1779000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1400000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1494000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>3708000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2238000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>5706000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>5752000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2605000</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>5164000</v>
+      </c>
+      <c r="E10" s="3">
         <v>2951000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>4902000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>5926000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>4487000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>3873000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2802000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>10453000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>9065000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>10676000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>14283000</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -843,31 +856,32 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>124000</v>
+      </c>
+      <c r="E12" s="3">
         <v>173000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>186000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>289000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>549000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>473000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>2771000</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>8</v>
@@ -878,9 +892,12 @@
       <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -914,81 +931,90 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>298000</v>
+      </c>
+      <c r="E14" s="3">
         <v>4464000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>3650000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>824000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-602000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>1122000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>34879000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>6987000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>1012000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>1957000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>129000</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>1360000</v>
+      </c>
+      <c r="E15" s="3">
         <v>1772000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>2680000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>2405000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>2280000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>2618000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>3300000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>4719000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>4871000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>4955000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>4095000</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1000,80 +1026,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>5560000</v>
+      </c>
+      <c r="E17" s="3">
         <v>8689000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>9131000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>6399000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4482000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>7015000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>18777000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>15610000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>10530000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>11724000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>8795000</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>2425000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-4254000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-2640000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1306000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1405000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1648000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-12267000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-2919000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>4241000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>4704000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>8093000</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1088,97 +1121,104 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-116000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-152000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>32000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>58000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-72000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-34000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>98000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>110000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-333000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>136000</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>3669000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-2634000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>72000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>3769000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>3613000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>936000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-8869000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>6911000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>9774000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>11949000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>12297000</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>418000</v>
+      </c>
+      <c r="E22" s="3">
         <v>434000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>400000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>406000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>415000</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>8</v>
@@ -1192,84 +1232,93 @@
       <c r="L22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="M22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1891000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-4840000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-3008000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>958000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>918000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1682000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-12169000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2809000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>3908000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>4840000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>8093000</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>578000</v>
+      </c>
+      <c r="E24" s="3">
         <v>64000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>674000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>408000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-698000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-442000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-1010000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>663000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1928000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>2853000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>3509000</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1303,81 +1352,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1313000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-4904000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-3682000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>550000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1616000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1240000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-11159000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-3472000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1980000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1987000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>4584000</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>973000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-4860000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-3553000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>304000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1417000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1372000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-10844000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-3815000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1880000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1911000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>4508000</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1411,9 +1469,12 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1423,33 +1484,36 @@
       <c r="E29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" s="3">
         <v>-264000</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>-113000</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>-33000</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>492000</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-1588000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>308000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>14000</v>
       </c>
-      <c r="M29" s="3" t="s">
+      <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1483,9 +1547,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1519,81 +1586,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>116000</v>
+      </c>
+      <c r="E32" s="3">
         <v>152000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-32000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-58000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>72000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>34000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-98000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-110000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>333000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-136000</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>973000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-4860000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-3553000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>40000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1304000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1405000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-10352000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-5403000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2188000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1925000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>4508000</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1627,86 +1703,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>973000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-4860000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-3553000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>40000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1304000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1405000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-10352000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-5403000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2188000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1925000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>4508000</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42369</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42004</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41639</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41274</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40908</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1721,8 +1806,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1737,44 +1823,48 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>302000</v>
+      </c>
+      <c r="E41" s="3">
         <v>262000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>247000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>714000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1668000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1377000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1467000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>769000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1906000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>160000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>295000</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1808,167 +1898,182 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1394000</v>
+      </c>
+      <c r="E43" s="3">
         <v>908000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1062000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2388000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1345000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1128000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2506000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2024000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2952000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3086000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3079000</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>473000</v>
+      </c>
+      <c r="E44" s="3">
         <v>492000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>502000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>401000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>368000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>476000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>570000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>708000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>891000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>908000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>655000</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>211000</v>
+      </c>
+      <c r="E45" s="3">
         <v>184000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>150000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>378000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>344000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>260000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>462000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2914000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>617000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>808000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>774000</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2380000</v>
+      </c>
+      <c r="E46" s="3">
         <v>1846000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1961000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2687000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3725000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3241000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3752000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>6415000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>6366000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4962000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4803000</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1365000</v>
+      </c>
+      <c r="E47" s="3">
         <v>1555000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1258000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>121000</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>8</v>
@@ -1985,84 +2090,93 @@
       <c r="L47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M47" s="3">
-        <v>0</v>
-      </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="M47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>8335000</v>
+      </c>
+      <c r="E48" s="3">
         <v>8819000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>14158000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>18421000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>17759000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>18867000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>20838000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>48076000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>52421000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>53280000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>45448000</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>8</v>
+      <c r="D49" s="3">
+        <v>0</v>
+      </c>
+      <c r="E49" s="3">
+        <v>0</v>
+      </c>
+      <c r="F49" s="3">
+        <v>0</v>
+      </c>
+      <c r="G49" s="3">
+        <v>0</v>
+      </c>
+      <c r="H49" s="3">
+        <v>0</v>
+      </c>
+      <c r="I49" s="3">
+        <v>0</v>
       </c>
       <c r="J49" s="3">
+        <v>0</v>
+      </c>
+      <c r="K49" s="3">
         <v>87000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1369000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1289000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1114000</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2096,9 +2210,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2132,45 +2249,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1223000</v>
+      </c>
+      <c r="E52" s="3">
         <v>526000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>730000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>827000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>438000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>411000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>910000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1374000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1481000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1206000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1344000</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2204,45 +2327,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>13303000</v>
+      </c>
+      <c r="E54" s="3">
         <v>12746000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>18107000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>21582000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>21922000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>22519000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>25500000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>55952000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>61637000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>60737000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>52051000</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2257,8 +2386,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2273,224 +2403,243 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>731000</v>
+      </c>
+      <c r="E57" s="3">
         <v>444000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>695000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>709000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>641000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>585000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>618000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1210000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1616000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1092000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1048000</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>215000</v>
+      </c>
+      <c r="E58" s="3">
         <v>2000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>11000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>301000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>550000</v>
       </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
       <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
         <v>1000</v>
       </c>
-      <c r="J58" s="3">
-        <v>0</v>
-      </c>
       <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
         <v>53000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>990000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>431000</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1171000</v>
+      </c>
+      <c r="E59" s="3">
         <v>862000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1149000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1502000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1373000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1258000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1222000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2454000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3031000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3454000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3760000</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2117000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1308000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1855000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2201000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2564000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1843000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1841000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3664000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4700000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>5536000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4963000</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>7295000</v>
+      </c>
+      <c r="E61" s="3">
         <v>8770000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>8555000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>8093000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>7934000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>8544000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>8716000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>11245000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>9672000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>11355000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>6785000</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3896000</v>
+      </c>
+      <c r="E62" s="3">
         <v>2705000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2677000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2476000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2633000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>4453000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>5453000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>12906000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>11872000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>12515000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>11942000</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2524,9 +2673,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2560,9 +2712,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2596,45 +2751,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>14898000</v>
+      </c>
+      <c r="E66" s="3">
         <v>14385000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>14852000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>14452000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>14506000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>16281000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>17612000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>30015000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>28241000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>29406000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>23058000</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2649,8 +2810,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2684,9 +2846,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2720,9 +2885,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2756,9 +2924,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2792,45 +2963,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-9488000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-10461000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-5601000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-2048000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-2088000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-3385000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-1980000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>16249000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>22032000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>20161000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>18500000</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2864,9 +3041,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2900,9 +3080,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2936,45 +3119,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1595000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-1639000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3255000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>7130000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>7416000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>6238000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>7888000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>25937000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>33396000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>31331000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>28993000</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3008,86 +3197,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42369</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42004</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41639</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41274</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40908</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>973000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-4860000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-3553000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>40000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1304000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1405000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-10352000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-5403000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2188000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1925000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>4508000</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3102,44 +3300,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1360000</v>
+      </c>
+      <c r="E83" s="3">
         <v>1772000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>2680000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>2405000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>2280000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>2618000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>3300000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>9720000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>5866000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>7109000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>4204000</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3173,9 +3375,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3209,9 +3414,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3245,9 +3453,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3281,9 +3492,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3317,45 +3531,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>3496000</v>
+      </c>
+      <c r="E89" s="3">
         <v>1388000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>2867000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>3777000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>2428000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>2430000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>2667000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>8461000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>9835000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>8504000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>9953000</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3370,44 +3590,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1113000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1302000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2961000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-3904000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2760000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1768000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-4441000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-9903000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-9127000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-9531000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-7078000</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3441,9 +3665,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3477,45 +3704,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-833000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1466000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-3446000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-3944000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1416000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1660000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>1083000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-8804000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-7116000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-13424000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-8645000</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3530,44 +3763,48 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-52000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-123000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-376000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-382000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-380000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-379000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-377000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-365000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-360000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-332000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-306000</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3601,9 +3838,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3637,9 +3877,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3673,45 +3916,51 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2623000</v>
+      </c>
+      <c r="E100" s="3">
         <v>93000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>112000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-787000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-721000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-860000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-2962000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-794000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-973000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>4785000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1147000</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3745,43 +3994,49 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>40000</v>
+      </c>
+      <c r="E102" s="3">
         <v>15000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-467000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-954000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>291000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-90000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>788000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1137000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1746000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-135000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>161000</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/APA_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/APA_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
   <si>
     <t>APA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,183 +665,195 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42369</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42004</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41639</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41274</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>40908</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>11075000</v>
+      </c>
+      <c r="E8" s="3">
         <v>7985000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>4435000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>6491000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>7705000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>5887000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>5367000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>6510000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>12691000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>14771000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>16428000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>16888000</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>3220000</v>
+      </c>
+      <c r="E9" s="3">
         <v>2821000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1484000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1589000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1779000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1400000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1494000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>3708000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2238000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>5706000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>5752000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2605000</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>7855000</v>
+      </c>
+      <c r="E10" s="3">
         <v>5164000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>2951000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>4902000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>5926000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>4487000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>3873000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>2802000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>10453000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>9065000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>10676000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>14283000</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -857,34 +869,35 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>281000</v>
+      </c>
+      <c r="E12" s="3">
         <v>124000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>173000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>186000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>289000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>549000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>473000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>2771000</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>8</v>
@@ -895,9 +908,12 @@
       <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -934,87 +950,96 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-1063000</v>
+      </c>
+      <c r="E14" s="3">
         <v>298000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>4464000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>3650000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>824000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-602000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>1122000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>34879000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>6987000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>1012000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>1957000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>129000</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>1233000</v>
+      </c>
+      <c r="E15" s="3">
         <v>1360000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>1772000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>2680000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>2405000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>2280000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>2618000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>3300000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>4719000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>4871000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>4955000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>4095000</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1027,86 +1052,93 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>4906000</v>
+      </c>
+      <c r="E17" s="3">
         <v>5560000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>8689000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>9131000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>6399000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>4482000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>7015000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>18777000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>15610000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>10530000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>11724000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>8795000</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>6169000</v>
+      </c>
+      <c r="E18" s="3">
         <v>2425000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-4254000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-2640000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1306000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1405000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1648000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-12267000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-2919000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>4241000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>4704000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>8093000</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1122,106 +1154,113 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-113000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-116000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-152000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>32000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>58000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-72000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-34000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>98000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>110000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-333000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>136000</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>7289000</v>
+      </c>
+      <c r="E21" s="3">
         <v>3669000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-2634000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>72000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>3769000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>3613000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>936000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-8869000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>6911000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>9774000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>11949000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>12297000</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>322000</v>
+      </c>
+      <c r="E22" s="3">
         <v>418000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>434000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>400000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>406000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>415000</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>8</v>
@@ -1235,90 +1274,99 @@
       <c r="M22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>5734000</v>
+      </c>
+      <c r="E23" s="3">
         <v>1891000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-4840000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-3008000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>958000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>918000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1682000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-12169000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2809000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>3908000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>4840000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>8093000</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1652000</v>
+      </c>
+      <c r="E24" s="3">
         <v>578000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>64000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>674000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>408000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-698000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-442000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-1010000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>663000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1928000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>2853000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>3509000</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1355,87 +1403,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>4082000</v>
+      </c>
+      <c r="E26" s="3">
         <v>1313000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-4904000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-3682000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>550000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1616000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1240000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-11159000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-3472000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1980000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1987000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>4584000</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>3674000</v>
+      </c>
+      <c r="E27" s="3">
         <v>973000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-4860000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-3553000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>304000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1417000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1372000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-10844000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-3815000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1880000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1911000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>4508000</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1472,9 +1529,12 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1487,33 +1547,36 @@
       <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" s="3">
         <v>-264000</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>-113000</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-33000</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>492000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-1588000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>308000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>14000</v>
       </c>
-      <c r="N29" s="3" t="s">
+      <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1550,9 +1613,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1589,87 +1655,96 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>113000</v>
+      </c>
+      <c r="E32" s="3">
         <v>116000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>152000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-32000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-58000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>72000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>34000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-98000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-110000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>333000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-136000</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>3674000</v>
+      </c>
+      <c r="E33" s="3">
         <v>973000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-4860000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-3553000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>40000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1304000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1405000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-10352000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-5403000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2188000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1925000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>4508000</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1706,92 +1781,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>3674000</v>
+      </c>
+      <c r="E35" s="3">
         <v>973000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-4860000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-3553000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>40000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1304000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1405000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-10352000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-5403000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2188000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1925000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>4508000</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42369</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42004</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41639</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41274</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>40908</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1807,8 +1891,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1824,47 +1909,51 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>245000</v>
+      </c>
+      <c r="E41" s="3">
         <v>302000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>262000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>247000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>714000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1668000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1377000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1467000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>769000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1906000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>160000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>295000</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1901,182 +1990,197 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1466000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1394000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>908000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1062000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2388000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1345000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1128000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2506000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2024000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2952000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3086000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3079000</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>427000</v>
+      </c>
+      <c r="E44" s="3">
         <v>473000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>492000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>502000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>401000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>368000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>476000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>570000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>708000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>891000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>908000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>655000</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>570000</v>
+      </c>
+      <c r="E45" s="3">
         <v>211000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>184000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>150000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>378000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>344000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>260000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>462000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2914000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>617000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>808000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>774000</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2708000</v>
+      </c>
+      <c r="E46" s="3">
         <v>2380000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1846000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1961000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2687000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3725000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3241000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3752000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>6415000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>6366000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4962000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4803000</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>624000</v>
+      </c>
+      <c r="E47" s="3">
         <v>1365000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1555000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>1258000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>121000</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>8</v>
@@ -2093,51 +2197,57 @@
       <c r="M47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N47" s="3">
-        <v>0</v>
-      </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>9012000</v>
+      </c>
+      <c r="E48" s="3">
         <v>8335000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>8819000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>14158000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>18421000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>17759000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>18867000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>20838000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>48076000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>52421000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>53280000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>45448000</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2163,20 +2273,23 @@
         <v>0</v>
       </c>
       <c r="K49" s="3">
+        <v>0</v>
+      </c>
+      <c r="L49" s="3">
         <v>87000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1369000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1289000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1114000</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2213,9 +2326,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2252,48 +2368,54 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>803000</v>
+      </c>
+      <c r="E52" s="3">
         <v>1223000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>526000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>730000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>827000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>438000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>411000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>910000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1374000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1481000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1206000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1344000</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2330,48 +2452,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>13147000</v>
+      </c>
+      <c r="E54" s="3">
         <v>13303000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>12746000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>18107000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>21582000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>21922000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>22519000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>25500000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>55952000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>61637000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>60737000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>52051000</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2387,8 +2515,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2404,242 +2533,261 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>771000</v>
+      </c>
+      <c r="E57" s="3">
         <v>731000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>444000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>695000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>709000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>641000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>585000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>618000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1210000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1616000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1092000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1048000</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E58" s="3">
         <v>215000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>11000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>301000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>550000</v>
       </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
       <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
         <v>1000</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
       <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
         <v>53000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>990000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>431000</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2143000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1171000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>862000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1149000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1502000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1373000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1258000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1222000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2454000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3031000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3454000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3760000</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2916000</v>
+      </c>
+      <c r="E60" s="3">
         <v>2117000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1308000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1855000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2201000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2564000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1843000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1841000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3664000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4700000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>5536000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>4963000</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>5451000</v>
+      </c>
+      <c r="E61" s="3">
         <v>7295000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>8770000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>8555000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>8093000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>7934000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>8544000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>8716000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>11245000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>9672000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>11355000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>6785000</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3435000</v>
+      </c>
+      <c r="E62" s="3">
         <v>3896000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2705000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2677000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2476000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2633000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>4453000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>5453000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>12906000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>11872000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>12515000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>11942000</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2676,9 +2824,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2715,9 +2866,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2754,48 +2908,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>12724000</v>
+      </c>
+      <c r="E66" s="3">
         <v>14898000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>14385000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>14852000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>14452000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>14506000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>16281000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>17612000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>30015000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>28241000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>29406000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>23058000</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2811,8 +2971,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2849,9 +3010,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2888,9 +3052,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2927,9 +3094,12 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2966,48 +3136,54 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-5814000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-9488000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-10461000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-5601000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-2048000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-2088000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-3385000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-1980000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>16249000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>22032000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>20161000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>18500000</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3044,9 +3220,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3083,9 +3262,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3122,48 +3304,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>423000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-1595000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-1639000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3255000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>7130000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>7416000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>6238000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>7888000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>25937000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>33396000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>31331000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>28993000</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3200,92 +3388,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42369</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42004</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41639</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41274</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>40908</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>3674000</v>
+      </c>
+      <c r="E81" s="3">
         <v>973000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-4860000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-3553000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>40000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1304000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1405000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-10352000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-5403000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2188000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1925000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>4508000</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3301,47 +3498,51 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1233000</v>
+      </c>
+      <c r="E83" s="3">
         <v>1360000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1772000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>2680000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>2405000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>2280000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>2618000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>3300000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>9720000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>5866000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>7109000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>4204000</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3378,9 +3579,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3417,9 +3621,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3456,9 +3663,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3495,9 +3705,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3534,48 +3747,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>4943000</v>
+      </c>
+      <c r="E89" s="3">
         <v>3496000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1388000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>2867000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>3777000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>2428000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>2430000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>2667000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>8461000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>9835000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>8504000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>9953000</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3591,47 +3810,51 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2398000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1113000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1302000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2961000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-3904000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2760000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1768000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-4441000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-9903000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-9127000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-9531000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-7078000</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3668,9 +3891,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3707,48 +3933,54 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1511000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-833000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1466000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-3446000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-3944000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1416000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1660000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>1083000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-8804000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-7116000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-13424000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-8645000</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3764,47 +3996,51 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-207000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-52000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-123000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-376000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-382000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-380000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-379000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-377000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-365000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-360000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-332000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-306000</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3841,9 +4077,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3880,9 +4119,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3919,48 +4161,54 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-3489000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-2623000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>93000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>112000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-787000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-721000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-860000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-2962000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-794000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-973000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>4785000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1147000</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3997,46 +4245,52 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-57000</v>
+      </c>
+      <c r="E102" s="3">
         <v>40000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>15000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-467000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-954000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>291000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-90000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>788000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1137000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1746000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-135000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>161000</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
